--- a/_Out/Server/NFDataCfg/Excel_Ini/HttpServer.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/HttpServer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>Id</t>
   </si>
@@ -62,15 +62,6 @@
   </si>
   <si>
     <t>Desc</t>
-  </si>
-  <si>
-    <t>json消息获取端口</t>
-  </si>
-  <si>
-    <t>web服务器端口</t>
-  </si>
-  <si>
-    <t>相对于MasterServer的工作目录定位</t>
   </si>
   <si>
     <t>HttpServer_1</t>
@@ -90,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -116,8 +107,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,74 +152,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -231,37 +183,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +279,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -300,19 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,13 +399,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,133 +447,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,17 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -663,24 +643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -695,153 +657,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,7 +1285,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1473,25 +1464,19 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="6">
         <v>8080</v>
@@ -1500,15 +1485,15 @@
         <v>80</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6 E6 F6 E7:E8 B7:D8 F7:G8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/HttpServer.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/HttpServer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>HttpServer_1</t>
   </si>
   <si>
-    <t>001</t>
+    <t>3</t>
   </si>
   <si>
     <t>127.0.0.1</t>
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -105,6 +105,21 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -136,6 +151,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -158,11 +188,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,76 +220,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,18 +279,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -303,163 +387,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +585,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +609,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,32 +643,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,24 +678,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -691,148 +691,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1285,7 +1285,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9:I9"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1490,10 +1490,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6 E6 F6 E7:E8 B7:D8 F7:G8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/HttpServer.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/HttpServer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>Id</t>
   </si>
@@ -22,12 +22,6 @@
     <t>ServerID</t>
   </si>
   <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>JsonPort</t>
-  </si>
-  <si>
     <t>WebPort</t>
   </si>
   <si>
@@ -68,9 +62,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
   </si>
   <si>
     <t>../../../Tool/NF_Web_Monitor</t>
@@ -115,14 +106,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -145,29 +128,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,28 +158,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -219,6 +174,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -226,17 +196,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,7 +220,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,67 +282,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,103 +438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +576,39 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,7 +631,33 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -627,212 +677,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1280,25 +1271,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15" style="6" customWidth="1"/>
-    <col min="4" max="5" width="10.375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="3" max="3" width="10.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1308,39 +1298,27 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:4">
+      <c r="A3" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:6">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="B3" s="3" t="b">
         <v>1</v>
@@ -1351,146 +1329,102 @@
       <c r="D3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:6">
+    <row r="4" s="3" customFormat="1" spans="1:4">
       <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:4">
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:4">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="b">
+      <c r="B6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:6">
-      <c r="A5" s="11" t="s">
+    <row r="7" s="4" customFormat="1" spans="1:4">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="b">
+      <c r="B7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:6">
-      <c r="A6" s="11" t="s">
+    <row r="8" s="4" customFormat="1" spans="1:4">
+      <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="b">
+      <c r="B8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:6">
-      <c r="A7" s="14" t="s">
+    <row r="9" s="5" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A9" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="1" spans="1:6">
-      <c r="A8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="14.25" spans="1:6">
-      <c r="A9" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:4">
       <c r="A10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6">
+        <v>80</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6">
-        <v>8080</v>
-      </c>
-      <c r="E10" s="6">
-        <v>80</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6 E6 F6 E7:E8 B7:D8 F7:G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 C6 D6 B7:B8 C7:C8 D7:E8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
